--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/87.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/87.xlsx
@@ -479,13 +479,13 @@
         <v>-6.759168433036206</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.55008146666732</v>
+        <v>-10.53185698111163</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.200691081858706</v>
+        <v>-3.19275714633662</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.994765074927749</v>
+        <v>-7.92453796248473</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.353038006516938</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.11074624356139</v>
+        <v>-11.08948434374643</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.269687517834602</v>
+        <v>-3.265380150199674</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.843994115402431</v>
+        <v>-7.777341201635204</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.763419186294326</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.25732766617736</v>
+        <v>-11.23548970503736</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.166258325384966</v>
+        <v>-3.161545096361945</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.452966306428599</v>
+        <v>-7.387858284396695</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.048515381723556</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.7168544036191</v>
+        <v>-11.69565796531835</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.30418573582255</v>
+        <v>-3.300650814055284</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.147261035074295</v>
+        <v>-7.082873089698686</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.20856179384226</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.10936164281405</v>
+        <v>-12.09032543448218</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.36539225160762</v>
+        <v>-3.362813067947799</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.857881865363624</v>
+        <v>-6.796073103647835</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.269295126610682</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.65512737907424</v>
+        <v>-12.63317158720867</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.230030932527014</v>
+        <v>-3.230633178457733</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.513816146683062</v>
+        <v>-6.455385199100439</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.239423776472043</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.22228593817782</v>
+        <v>-13.20152154587084</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.180908612264858</v>
+        <v>-3.186852517755001</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.334425413145732</v>
+        <v>-6.277552449601274</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.128299583632692</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.6259740039996</v>
+        <v>-13.60685924185068</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.3095666722905</v>
+        <v>-3.313140870966291</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.165809644847142</v>
+        <v>-6.11155514187103</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.05023141346549524</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.35321214994896</v>
+        <v>-14.32895211278324</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.167331894217988</v>
+        <v>-3.173328168919498</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.111882449442072</v>
+        <v>-6.060259499337147</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>1.264707638082581</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.78021760713185</v>
+        <v>-14.75802615381513</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.233330192843129</v>
+        <v>-3.241748543570359</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.138721670267611</v>
+        <v>-6.085462182307469</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>2.470090185253397</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.35286184112611</v>
+        <v>-15.32836614250924</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.267605841682768</v>
+        <v>-3.276115838529889</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.831052553487049</v>
+        <v>-5.783710786411367</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>3.610732915609619</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.43517314909204</v>
+        <v>-15.41074291198938</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.396538840068086</v>
+        <v>-3.401631745873517</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.382588811946563</v>
+        <v>-5.336071859949911</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>4.620339846964073</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.14294304071575</v>
+        <v>-16.11709883490618</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.066638993062273</v>
+        <v>-3.073918313442272</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.01438088682586</v>
+        <v>-4.968976780570753</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>5.443045484767285</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.75083175395994</v>
+        <v>-16.72318081035821</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.015395719739757</v>
+        <v>-3.020410071728138</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.9515771100941</v>
+        <v>-4.907927372419785</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>6.048440938807606</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.52816105058174</v>
+        <v>-17.50027444552886</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.789867710988184</v>
+        <v>-2.797840923418795</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.706070247206052</v>
+        <v>-4.663703555210227</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>6.436052972736278</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.03210997156546</v>
+        <v>-18.00462922790067</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.68099212055639</v>
+        <v>-2.685312580494159</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.496776693978219</v>
+        <v>-4.452158125893617</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>6.629715965352696</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.46367155013727</v>
+        <v>-18.43595514502134</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.744188666373401</v>
+        <v>-2.75199167886707</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.415159278062899</v>
+        <v>-4.369205295088441</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>6.671075050874517</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.06735763416926</v>
+        <v>-19.03662999939973</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.5107136297969</v>
+        <v>-2.520113903237259</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.058407117928706</v>
+        <v>-4.012767350222449</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>6.608750511346802</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.39975811101785</v>
+        <v>-19.36612398501745</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.280511668930831</v>
+        <v>-2.288249219910291</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.731898177358899</v>
+        <v>-3.679777719745988</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>6.482662670105644</v>
       </c>
       <c r="E21" t="n">
-        <v>-20.1093609250394</v>
+        <v>-20.07521619922818</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.035528498156453</v>
+        <v>-2.043789741249582</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.727315871364295</v>
+        <v>-3.671568845864225</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>6.321956611109256</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.70396095089923</v>
+        <v>-20.66668716470884</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.814307857039807</v>
+        <v>-1.824402022530778</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.713830799437317</v>
+        <v>-3.655858082454154</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>6.145346514514052</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.9126391658935</v>
+        <v>-20.87522136437185</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.67803007676028</v>
+        <v>-1.688530103639345</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.581218863953474</v>
+        <v>-3.519973071259879</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>5.965458076064106</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.47532015742521</v>
+        <v>-21.43422341880503</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.513852599125036</v>
+        <v>-1.521053365687985</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.740683112565697</v>
+        <v>-3.675732198167895</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>5.789031754018773</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.65676638250869</v>
+        <v>-21.61298572180595</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.325755484197957</v>
+        <v>-1.333021712275115</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.719264105116634</v>
+        <v>-3.657664820246312</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>5.619007935300114</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.74997048643893</v>
+        <v>-21.70814057885962</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.350617767294395</v>
+        <v>-1.357609057011877</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.918227831402345</v>
+        <v>-3.856497623503606</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>5.456461707210857</v>
       </c>
       <c r="E27" t="n">
-        <v>-21.84392085163116</v>
+        <v>-21.80021874474548</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.13865338428685</v>
+        <v>-1.150043687759152</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.119521987593883</v>
+        <v>-4.060606624806115</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>5.30318677322771</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.74259951993904</v>
+        <v>-21.70083507387394</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.116422654061599</v>
+        <v>-1.125953850530376</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.150301991574781</v>
+        <v>-4.090574906010827</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>5.167006294221946</v>
       </c>
       <c r="E29" t="n">
-        <v>-21.82572255068116</v>
+        <v>-21.78124799792782</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.9658873559874328</v>
+        <v>-0.9750781525823244</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.472870148989228</v>
+        <v>-4.411349417935957</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>5.054910360550699</v>
       </c>
       <c r="E30" t="n">
-        <v>-21.8671204122667</v>
+        <v>-21.82223999812526</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.050502909253508</v>
+        <v>-1.062076504965594</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.647154884418285</v>
+        <v>-4.587087398980446</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>4.974874086721941</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.70893920933296</v>
+        <v>-21.66455630269951</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.129567326114692</v>
+        <v>-1.139452014760195</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.692532806067708</v>
+        <v>-4.631378659494005</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>4.932938901694212</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.56040703359358</v>
+        <v>-21.5183676491688</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.214182879380768</v>
+        <v>-1.224499614020048</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.981925068081221</v>
+        <v>-4.922433643968417</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>4.935345316362472</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.54917383775538</v>
+        <v>-21.50236885509621</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.279906239646232</v>
+        <v>-1.291780958323678</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.89764991468903</v>
+        <v>-4.836914721806263</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>4.983077435733033</v>
       </c>
       <c r="E34" t="n">
-        <v>-21.15771398278777</v>
+        <v>-21.11206112277867</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.45388985210993</v>
+        <v>-1.463146110219031</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.812432115492235</v>
+        <v>-4.754681967657381</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>5.075893850003061</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.88957052828638</v>
+        <v>-20.84459846802505</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.46996719999957</v>
+        <v>-1.480061365490541</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.797323598012883</v>
+        <v>-4.737950004625655</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>5.208637438109758</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.65520521511664</v>
+        <v>-20.61061283163772</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.641672751768807</v>
+        <v>-1.653010686029742</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.659644941329292</v>
+        <v>-4.604644177091201</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>5.37104975293536</v>
       </c>
       <c r="E37" t="n">
-        <v>-20.35489397253313</v>
+        <v>-20.31280221889698</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.650104194798879</v>
+        <v>-1.661167190700137</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.525763052469801</v>
+        <v>-4.466035966905847</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>5.546115977404894</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.02642118653706</v>
+        <v>-19.98597906305897</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.729862503710674</v>
+        <v>-1.739014023397041</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.1140363127032</v>
+        <v>-4.058734425499749</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>5.713261081019337</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.90495080077153</v>
+        <v>-19.86555606152077</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.674246401239022</v>
+        <v>-1.682848044206036</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.782748681596163</v>
+        <v>-3.727407517484187</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>5.849141457969528</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.51244356157658</v>
+        <v>-19.47365106825655</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.767005366872651</v>
+        <v>-1.780686823342255</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.904179790453172</v>
+        <v>-3.85152254842375</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>5.93219226744707</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.11771063089854</v>
+        <v>-19.08101290603318</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.615854730564923</v>
+        <v>-1.62932671018906</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.508818429238729</v>
+        <v>-3.456030264180889</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>5.946663050780974</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.55212314813597</v>
+        <v>-18.51741545330256</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.73665740888553</v>
+        <v>-1.74879397361981</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.43593357931884</v>
+        <v>-3.380409122967079</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>5.880973877851808</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.19081486661286</v>
+        <v>-18.15939333979272</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.031928114874978</v>
+        <v>-2.043815925855265</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.355088609271181</v>
+        <v>-3.299760537462047</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>5.732117447182857</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.006174119636</v>
+        <v>-17.97396705464535</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.158897267834037</v>
+        <v>-2.168847417993749</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.144734579513169</v>
+        <v>-3.090532445748423</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>5.503382369737941</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.79503455170748</v>
+        <v>-17.76678136217503</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.102770565551558</v>
+        <v>-2.110521208833859</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.098715135024501</v>
+        <v>-3.045154524099</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>5.205156309958824</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.33927839748415</v>
+        <v>-17.31669417508218</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.224817012642128</v>
+        <v>-2.2315857332113</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.916273894925049</v>
+        <v>-2.862019391948936</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>4.851325977285976</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.3652404340193</v>
+        <v>-17.34768365590854</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.103071688516917</v>
+        <v>-2.11325750012778</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.810553549478111</v>
+        <v>-2.754858893189408</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>4.460502946069634</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.2393579421961</v>
+        <v>-17.22197136402229</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.252782171512055</v>
+        <v>-2.262051521923997</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.578165174037473</v>
+        <v>-2.523242963616432</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>4.050608522669699</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.80300458078421</v>
+        <v>-16.78344468033868</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.27117685700468</v>
+        <v>-2.280616407353564</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.558251781415207</v>
+        <v>-2.500815848848555</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>3.637157301951591</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.48073754633512</v>
+        <v>-16.46558975194725</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.44980823697719</v>
+        <v>-2.460622479124456</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.365127222196906</v>
+        <v>-2.308856504583168</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>3.234162394934963</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.01433734990148</v>
+        <v>-16.00090464718587</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.576502451576574</v>
+        <v>-2.585012448423696</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.249116326716372</v>
+        <v>-2.196367438567057</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>2.852420866776676</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.83313987857199</v>
+        <v>-15.82368723592026</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.473898074205966</v>
+        <v>-2.482957947772441</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.175576861654396</v>
+        <v>-2.125380972559219</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>2.496954799794889</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.36148966869881</v>
+        <v>-15.35283565652042</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.376975756268668</v>
+        <v>-2.384399091979927</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.179268891055763</v>
+        <v>-2.131521262591988</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>2.16769459946732</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.01112655235137</v>
+        <v>-15.00438401638789</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.580089742555207</v>
+        <v>-2.588665200916537</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.386650968068704</v>
+        <v>-2.337764309257699</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>1.864640936574616</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.63886001334973</v>
+        <v>-14.62968230905769</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.587761832020458</v>
+        <v>-2.596284921170422</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.419853048075321</v>
+        <v>-2.370573620179064</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>1.585708142022106</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.73017882567077</v>
+        <v>-14.72155099809808</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.447137407197479</v>
+        <v>-2.453330066441615</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.313059133795362</v>
+        <v>-2.262653767854717</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>1.328566199283889</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.58794404759826</v>
+        <v>-14.57909365087726</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.599283058521177</v>
+        <v>-2.60537097934258</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.477419903670391</v>
+        <v>-2.428991475458846</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>1.091975262932807</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.48515637798787</v>
+        <v>-14.47722244246579</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.468543322343701</v>
+        <v>-2.474827627707729</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.82321380632606</v>
+        <v>-2.774052209155379</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.8780333050038609</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.13999090586861</v>
+        <v>-14.13340547753922</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.472012782596758</v>
+        <v>-2.476529627077154</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.11349634493281</v>
+        <v>-3.056806673628136</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.6864667161348089</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.84255996991027</v>
+        <v>-13.83399760385178</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.515662520271073</v>
+        <v>-2.521488595035641</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.262866428054063</v>
+        <v>-3.209109432585936</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.5146030616005787</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.85799579496067</v>
+        <v>-13.84930250587376</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.361788684972266</v>
+        <v>-2.369879728128453</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.428484059001898</v>
+        <v>-3.373365464038231</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.3580599913026196</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.699395638336</v>
+        <v>-13.68850284237168</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.341246861813598</v>
+        <v>-2.34839525916518</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.600922779730272</v>
+        <v>-3.545267400350094</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2116748136261901</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.62456003529269</v>
+        <v>-13.61252820898115</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.40748082188989</v>
+        <v>-2.417692818106437</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.573114728494446</v>
+        <v>-3.519724317505887</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.06861584106269887</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.41188866793169</v>
+        <v>-13.40124462572137</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.288615804389859</v>
+        <v>-2.299351492720075</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.658987142833327</v>
+        <v>-3.605976408627178</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.08121406702520129</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.33548198854738</v>
+        <v>-13.32114591693569</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.266515997193026</v>
+        <v>-2.275405670822558</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.919550153989359</v>
+        <v>-3.866827450445728</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2468158089537495</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.2603714471444</v>
+        <v>-13.24727914430267</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.319880223575901</v>
+        <v>-2.330301696637915</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.86032057593339</v>
+        <v>-3.80965336393591</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4346650509477077</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.37195714426443</v>
+        <v>-13.35392904325137</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.447255237923054</v>
+        <v>-2.457113741962873</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.816592284442025</v>
+        <v>-3.76482531900584</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6493699879467369</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.44255084118702</v>
+        <v>-13.4251642630132</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.474853812313413</v>
+        <v>-2.487906838246613</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.897816931272094</v>
+        <v>-3.850318056562311</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8963089653786632</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.26778169055281</v>
+        <v>-13.24957029729997</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.277356423945975</v>
+        <v>-2.289702465525723</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.732853915466345</v>
+        <v>-3.684373118043434</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.176584596292843</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.40900836130651</v>
+        <v>-13.39105881411051</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.553289798638193</v>
+        <v>-2.563907656242833</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.710610092938253</v>
+        <v>-3.657455343400845</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.48624717116728</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.30184786254699</v>
+        <v>-13.28624183755965</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.592566707163372</v>
+        <v>-2.603957010635673</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.520392024950814</v>
+        <v>-3.472212350493263</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.81697558156406</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.44396480989392</v>
+        <v>-13.42652586250874</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.655946545220167</v>
+        <v>-2.667140464149843</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.584845431840632</v>
+        <v>-3.531900159148692</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.15648007697592</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.60329813547773</v>
+        <v>-13.58384297345492</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.637931536509952</v>
+        <v>-2.651822469825024</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.494731111381031</v>
+        <v>-3.440607531433336</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.490194150980356</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.84469401527347</v>
+        <v>-13.82429620744606</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.685535149642468</v>
+        <v>-2.700394913367827</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.545280492652936</v>
+        <v>-3.491392574156391</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.803864887972999</v>
       </c>
       <c r="E75" t="n">
-        <v>-14.02616642496264</v>
+        <v>-14.01107099978613</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.761745444484156</v>
+        <v>-2.777128900323184</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.4180364013342</v>
+        <v>-3.362027529777296</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.086746765264431</v>
       </c>
       <c r="E76" t="n">
-        <v>-14.18204338259623</v>
+        <v>-14.16604458852364</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.915841848931272</v>
+        <v>-2.930426674296954</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.093687690733279</v>
+        <v>-3.034209358923317</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.328898792567633</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.65093111656981</v>
+        <v>-14.63616299896434</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.02778103822803</v>
+        <v>-3.04431661671713</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.825845359197247</v>
+        <v>-2.767545334643041</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.521205081031963</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.4410908699765</v>
+        <v>-15.42488259905844</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.258061552911149</v>
+        <v>-3.272594009065465</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.683165442828116</v>
+        <v>-2.622888480544809</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.655868824083873</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.83931944551328</v>
+        <v>-15.82600457352325</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.149971500649859</v>
+        <v>-3.167894863240182</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.706247172738079</v>
+        <v>-2.641715212031211</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.729187060190975</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.23969515871611</v>
+        <v>-16.23089713120647</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.359605453751577</v>
+        <v>-3.37730624719359</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.544661971065496</v>
+        <v>-2.479187364554024</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.740636703956422</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.86523229619094</v>
+        <v>-16.85745546830295</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.509302844443873</v>
+        <v>-3.527200022428512</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.282239852905938</v>
+        <v>-2.214447908791481</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.695558794342102</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.55610002484598</v>
+        <v>-17.54811372011253</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.76322805805915</v>
+        <v>-3.781779851185875</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.300254861616154</v>
+        <v>-2.233091348038099</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.602914376682604</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.39874682034515</v>
+        <v>-18.39151986917652</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.002882661576946</v>
+        <v>-4.021107147132628</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.419879232681005</v>
+        <v>-2.348067951594137</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.472690970240192</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.17686165513746</v>
+        <v>-19.16862659665001</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.221484842125245</v>
+        <v>-4.24146369626172</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.194914192951626</v>
+        <v>-2.122003158426053</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.317737430458723</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.0707386316563</v>
+        <v>-20.06268686540864</v>
       </c>
       <c r="F85" t="n">
-        <v>-4.378108061020814</v>
+        <v>-4.398505868848224</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.216372477309215</v>
+        <v>-2.143867304171736</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.1544572649783</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.24081082892421</v>
+        <v>-21.23942304482298</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.583761954058647</v>
+        <v>-4.60562609980433</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.191732763361086</v>
+        <v>-2.118180205996269</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.003997595338545</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.33337659336909</v>
+        <v>-22.33101997885758</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.645505254260228</v>
+        <v>-4.665745954453536</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.433757073693235</v>
+        <v>-2.360715116139245</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.888271549802253</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.7106344831073</v>
+        <v>-23.71012388329648</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.685135654962132</v>
+        <v>-4.704263509413894</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.465086954393485</v>
+        <v>-2.389217059425682</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.829982569616299</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.06749456501811</v>
+        <v>-25.06567473492311</v>
       </c>
       <c r="F89" t="n">
-        <v>-4.950555910472445</v>
+        <v>-4.969173165113379</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.595800505965278</v>
+        <v>-2.518202427022367</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.849148034077063</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.61636636040567</v>
+        <v>-26.61275288482135</v>
       </c>
       <c r="F90" t="n">
-        <v>-5.045265629229491</v>
+        <v>-5.064236376047153</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.823658944622678</v>
+        <v>-2.742957989906279</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.962520408766244</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.1425753795742</v>
+        <v>-28.14079482638773</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.272888406435741</v>
+        <v>-5.294464521518905</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.05319319804382</v>
+        <v>-2.975084519290082</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.178505939998658</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.87315524610208</v>
+        <v>-29.8682980017478</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.424968596245231</v>
+        <v>-5.445732988552209</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.324426436015859</v>
+        <v>-3.241395051393632</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.498757312938575</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.60167962108381</v>
+        <v>-31.59408608543561</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.5797719850458</v>
+        <v>-5.60086368492382</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.759863336228826</v>
+        <v>-3.677879335833937</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.911447996648632</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.26927241864014</v>
+        <v>-33.25998997592536</v>
       </c>
       <c r="F94" t="n">
-        <v>-5.55307677955152</v>
+        <v>-5.573526956590297</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.132509552012875</v>
+        <v>-4.055068580704066</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.395784691352872</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.27129499998552</v>
+        <v>-35.26146268055139</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.767057377196691</v>
+        <v>-5.787939600229245</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.353795654643729</v>
+        <v>-4.272636469327869</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.919160805139914</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.1217348990294</v>
+        <v>-37.11013511871163</v>
       </c>
       <c r="F96" t="n">
-        <v>-6.09411619448585</v>
+        <v>-6.115770863386065</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.911711047941044</v>
+        <v>-4.834662845717486</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.443319171604017</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.21502392348446</v>
+        <v>-39.20266478960187</v>
       </c>
       <c r="F97" t="n">
-        <v>-6.08288299864765</v>
+        <v>-6.104131806159771</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.248196323276246</v>
+        <v>-5.170676798150385</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.927872549335717</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.4987012158639</v>
+        <v>-41.48212636046627</v>
       </c>
       <c r="F98" t="n">
-        <v>-6.291692136670338</v>
+        <v>-6.314420374403575</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.742195094100254</v>
+        <v>-5.66760824481094</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.33953818670299</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.4472024631923</v>
+        <v>-43.43001226956112</v>
       </c>
       <c r="F99" t="n">
-        <v>-6.40737572457983</v>
+        <v>-6.428637624394793</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.975211900077294</v>
+        <v>-5.903335157476218</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.651789869719223</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.56841736960876</v>
+        <v>-45.54830759244387</v>
       </c>
       <c r="F100" t="n">
-        <v>-6.543155997351371</v>
+        <v>-6.562584974768493</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.080434738016247</v>
+        <v>-6.005795519515567</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.852694422548104</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.75365363692126</v>
+        <v>-47.73074210694823</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.679852731321833</v>
+        <v>-6.700957523502695</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.543548766436623</v>
+        <v>-6.469027378661518</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.93822376807748</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.92768289300124</v>
+        <v>-49.90267659457354</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.085255888815881</v>
+        <v>-7.108088864971851</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.982730065262324</v>
+        <v>-6.906978001020097</v>
       </c>
     </row>
   </sheetData>
